--- a/Instances/02_SlowMoving.xlsx
+++ b/Instances/02_SlowMoving.xlsx
@@ -9,8 +9,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Generic" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requirement" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Productdata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForecastedAverageDemand" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForcastedStandardDeviation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>4.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1239,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1268,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1297,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1326,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>2.28</v>
+        <v>0.36</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1355,19 +1357,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>7500</v>
@@ -1384,19 +1386,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>3500</v>
@@ -1413,19 +1415,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>9000</v>
@@ -1442,19 +1444,19 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>1400</v>
@@ -1471,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1500,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1529,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1558,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>1.89</v>
+        <v>0.37</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -1585,6 +1587,830 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1608,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>180</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1616,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1624,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1632,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1640,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>72</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1648,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1656,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1664,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1672,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>45</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1680,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1688,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1696,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1704,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>36</v>
+        <v>10.8</v>
       </c>
     </row>
   </sheetData>
@@ -1712,7 +2538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1772,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1819,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1866,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1913,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1960,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2007,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2101,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2148,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -2195,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2289,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2336,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_SlowMoving.xlsx
+++ b/Instances/02_SlowMoving.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.001899013889104717</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.36</v>
+        <v>0.0009510950001391911</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>0.37</v>
+        <v>0.0006991295926156232</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.6</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>

--- a/Instances/02_SlowMoving.xlsx
+++ b/Instances/02_SlowMoving.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001899013889104717</v>
+        <v>0.2542257065304661</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0009510950001391911</v>
+        <v>0.1236519207928221</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
@@ -1444,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0006991295926156232</v>
+        <v>0.1302769203442392</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10.8</v>
+        <v>14.4</v>
       </c>
     </row>
   </sheetData>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_SlowMoving.xlsx
+++ b/Instances/02_SlowMoving.xlsx
@@ -1218,7 +1218,7 @@
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2542257065304661</v>
+        <v>0.01280501086067381</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1236519207928221</v>
+        <v>0.007774161849893564</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1302769203442392</v>
+        <v>0.007828221719048567</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14.4</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_SlowMoving.xlsx
+++ b/Instances/02_SlowMoving.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01280501086067381</v>
+        <v>0.1104341362287088</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.007774161849893564</v>
+        <v>0.0623177709926287</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
@@ -1444,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>0.007828221719048567</v>
+        <v>0.05537309697845504</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.6</v>
+        <v>10.8</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_SlowMoving.xlsx
+++ b/Instances/02_SlowMoving.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1104341362287088</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.05141666666666665</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.05138888888888889</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.05130555555555555</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0623177709926287</v>
+        <v>0.1026111111111111</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.05141666666666665</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.05138888888888889</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.1026111111111111</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.05130555555555555</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.04474999999999999</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.04472222222222221</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.04463888888888888</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05537309697845504</v>
+        <v>0.08927777777777776</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10.8</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_SlowMoving.xlsx
+++ b/Instances/02_SlowMoving.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.12</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1247,7 +1247,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05141666666666665</v>
+        <v>0.027765</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1276,7 +1276,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05138888888888889</v>
+        <v>0.02775</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1305,7 +1305,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05130555555555555</v>
+        <v>0.027705</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1026111111111111</v>
+        <v>0.05541</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05141666666666665</v>
+        <v>0.027765</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05138888888888889</v>
+        <v>0.02775</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1026111111111111</v>
+        <v>0.05541</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05130555555555555</v>
+        <v>0.027705</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1479,7 +1479,7 @@
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04474999999999999</v>
+        <v>0.024165</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1508,7 +1508,7 @@
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04472222222222221</v>
+        <v>0.02415</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1537,7 +1537,7 @@
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04463888888888888</v>
+        <v>0.024105</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1566,7 +1566,7 @@
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08927777777777776</v>
+        <v>0.04821</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>

--- a/Instances/02_SlowMoving.xlsx
+++ b/Instances/02_SlowMoving.xlsx
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
